--- a/Table/Table_xls/s商店商城商会表/bMT3摆摊一级表.xlsx
+++ b/Table/Table_xls/s商店商城商会表/bMT3摆摊一级表.xlsx
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71">
   <si>
     <t>ID</t>
   </si>
@@ -264,9 +264,6 @@
   </si>
   <si>
     <t>临时符</t>
-  </si>
-  <si>
-    <t>任务装备</t>
   </si>
   <si>
     <t>奇珍异宝</t>
@@ -301,10 +298,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -319,9 +316,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color indexed="63"/>
+      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -333,26 +329,55 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color indexed="10"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="56"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -365,30 +390,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="9"/>
+      <color indexed="17"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -398,12 +402,25 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color indexed="23"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="56"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -416,26 +433,6 @@
       <b/>
       <sz val="13"/>
       <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -461,7 +458,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="22"/>
+        <fgColor indexed="51"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,7 +476,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="42"/>
+        <fgColor indexed="10"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="62"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,13 +494,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="11"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="36"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="11"/>
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="30"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -509,7 +572,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="43"/>
+        <fgColor indexed="31"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,73 +584,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="46"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="30"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="51"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="62"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -598,6 +595,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -616,15 +622,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="62"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="23"/>
       </left>
@@ -636,39 +633,6 @@
       </top>
       <bottom style="thin">
         <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="30"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="63"/>
-      </left>
-      <right style="double">
-        <color indexed="63"/>
-      </right>
-      <top style="double">
-        <color indexed="63"/>
-      </top>
-      <bottom style="double">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
@@ -702,8 +666,41 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="thick">
+        <color indexed="62"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="63"/>
+      </left>
+      <right style="double">
+        <color indexed="63"/>
+      </right>
+      <top style="double">
+        <color indexed="63"/>
+      </top>
       <bottom style="double">
-        <color indexed="52"/>
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="30"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
@@ -715,145 +712,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1265,10 +1262,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:BB28"/>
+  <dimension ref="A1:BB27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12:N12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1444,7 +1441,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>2</v>
       </c>
@@ -1486,6 +1483,9 @@
       </c>
       <c r="N2" s="5">
         <v>109</v>
+      </c>
+      <c r="O2" s="5">
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -2003,7 +2003,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>10</v>
       </c>
@@ -2011,19 +2011,31 @@
         <v>62</v>
       </c>
       <c r="C10" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D10" s="3">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="F10">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>1002</v>
+      </c>
+      <c r="G10">
+        <v>1001</v>
+      </c>
+      <c r="H10">
+        <v>1003</v>
+      </c>
+      <c r="I10">
+        <v>1004</v>
+      </c>
+      <c r="J10" s="6">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>11</v>
       </c>
@@ -2031,31 +2043,43 @@
         <v>63</v>
       </c>
       <c r="C11" s="3">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D11" s="3">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="F11">
-        <v>1002</v>
+        <v>1101</v>
       </c>
       <c r="G11">
-        <v>1001</v>
+        <v>1102</v>
       </c>
       <c r="H11">
-        <v>1003</v>
+        <v>1103</v>
       </c>
       <c r="I11">
-        <v>1004</v>
-      </c>
-      <c r="J11" s="6">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1104</v>
+      </c>
+      <c r="J11">
+        <v>1105</v>
+      </c>
+      <c r="K11">
+        <v>1106</v>
+      </c>
+      <c r="L11" s="7">
+        <v>1107</v>
+      </c>
+      <c r="M11" s="7">
+        <v>1108</v>
+      </c>
+      <c r="N11" s="7">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12">
         <v>12</v>
       </c>
@@ -2063,111 +2087,114 @@
         <v>64</v>
       </c>
       <c r="C12" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" s="3">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1100</v>
+        <v>1114</v>
       </c>
       <c r="F12">
-        <v>1101</v>
+        <v>1115</v>
       </c>
       <c r="G12">
-        <v>1102</v>
+        <v>1116</v>
       </c>
       <c r="H12">
-        <v>1103</v>
+        <v>1117</v>
       </c>
       <c r="I12">
-        <v>1104</v>
+        <v>1118</v>
       </c>
       <c r="J12">
-        <v>1105</v>
+        <v>1119</v>
       </c>
       <c r="K12">
-        <v>1106</v>
-      </c>
-      <c r="L12" s="7">
-        <v>1107</v>
-      </c>
-      <c r="M12" s="7">
-        <v>1108</v>
-      </c>
-      <c r="N12" s="7">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22">
+        <v>1120</v>
+      </c>
+      <c r="L12">
+        <v>1121</v>
+      </c>
+      <c r="M12">
+        <v>1122</v>
+      </c>
+      <c r="N12">
+        <v>1123</v>
+      </c>
+      <c r="O12">
+        <v>1124</v>
+      </c>
+      <c r="P12">
+        <v>1125</v>
+      </c>
+      <c r="Q12">
+        <v>1126</v>
+      </c>
+      <c r="R12">
+        <v>1127</v>
+      </c>
+      <c r="S12">
+        <v>1128</v>
+      </c>
+      <c r="T12">
+        <v>1129</v>
+      </c>
+      <c r="U12">
+        <v>1130</v>
+      </c>
+      <c r="V12">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13">
         <v>13</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="3">
-        <v>4</v>
-      </c>
-      <c r="D13" s="3">
+      <c r="C13">
+        <v>13</v>
+      </c>
+      <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1114</v>
+        <v>1132</v>
       </c>
       <c r="F13">
-        <v>1115</v>
+        <v>1133</v>
       </c>
       <c r="G13">
-        <v>1116</v>
+        <v>1134</v>
       </c>
       <c r="H13">
-        <v>1117</v>
+        <v>1135</v>
       </c>
       <c r="I13">
-        <v>1118</v>
+        <v>1136</v>
       </c>
       <c r="J13">
-        <v>1119</v>
+        <v>1137</v>
       </c>
       <c r="K13">
-        <v>1120</v>
+        <v>1138</v>
       </c>
       <c r="L13">
-        <v>1121</v>
+        <v>1139</v>
       </c>
       <c r="M13">
-        <v>1122</v>
-      </c>
-      <c r="N13">
-        <v>1123</v>
-      </c>
-      <c r="O13">
-        <v>1124</v>
-      </c>
-      <c r="P13">
-        <v>1125</v>
-      </c>
-      <c r="Q13">
-        <v>1126</v>
-      </c>
-      <c r="R13">
-        <v>1127</v>
-      </c>
-      <c r="S13">
-        <v>1128</v>
-      </c>
-      <c r="T13">
-        <v>1129</v>
-      </c>
-      <c r="U13">
-        <v>1130</v>
-      </c>
-      <c r="V13">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>1140</v>
+      </c>
+      <c r="N13" s="4">
+        <v>351</v>
+      </c>
+      <c r="O13" s="4">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>14</v>
       </c>
@@ -2175,46 +2202,19 @@
         <v>66</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1132</v>
+        <v>1141</v>
       </c>
       <c r="F14">
-        <v>1133</v>
-      </c>
-      <c r="G14">
-        <v>1134</v>
-      </c>
-      <c r="H14">
-        <v>1135</v>
-      </c>
-      <c r="I14">
-        <v>1136</v>
-      </c>
-      <c r="J14">
-        <v>1137</v>
-      </c>
-      <c r="K14">
-        <v>1138</v>
-      </c>
-      <c r="L14">
-        <v>1139</v>
-      </c>
-      <c r="M14">
-        <v>1140</v>
-      </c>
-      <c r="N14" s="4">
-        <v>351</v>
-      </c>
-      <c r="O14" s="4">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15">
         <v>15</v>
       </c>
@@ -2222,304 +2222,289 @@
         <v>67</v>
       </c>
       <c r="C15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="F15">
-        <v>1142</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>1144</v>
+      </c>
+      <c r="G15">
+        <v>1145</v>
+      </c>
+      <c r="H15">
+        <v>1146</v>
+      </c>
+      <c r="I15">
+        <v>1147</v>
+      </c>
+      <c r="J15">
+        <v>1148</v>
+      </c>
+      <c r="K15">
+        <v>1149</v>
+      </c>
+      <c r="L15">
+        <v>1150</v>
+      </c>
+      <c r="M15">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:23">
       <c r="A16">
         <v>16</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C16">
-        <v>15</v>
-      </c>
-      <c r="D16">
+      <c r="C16" s="1">
+        <v>16</v>
+      </c>
+      <c r="D16" s="1">
         <v>0</v>
       </c>
-      <c r="E16">
-        <v>1143</v>
-      </c>
-      <c r="F16">
-        <v>1144</v>
-      </c>
-      <c r="G16">
-        <v>1145</v>
-      </c>
-      <c r="H16">
-        <v>1146</v>
-      </c>
-      <c r="I16">
-        <v>1147</v>
-      </c>
-      <c r="J16">
-        <v>1148</v>
-      </c>
-      <c r="K16">
-        <v>1149</v>
-      </c>
-      <c r="L16">
-        <v>1150</v>
-      </c>
-      <c r="M16">
-        <v>1151</v>
-      </c>
-    </row>
-    <row r="17" s="1" customFormat="1" spans="1:23">
-      <c r="A17" s="1">
+      <c r="E16" s="4">
+        <v>1172</v>
+      </c>
+      <c r="F16" s="4">
+        <v>1173</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1174</v>
+      </c>
+      <c r="H16" s="4">
+        <v>1175</v>
+      </c>
+      <c r="I16" s="4">
+        <v>1176</v>
+      </c>
+      <c r="J16" s="4">
+        <v>1177</v>
+      </c>
+      <c r="K16" s="4">
+        <v>1178</v>
+      </c>
+      <c r="L16" s="4">
+        <v>1179</v>
+      </c>
+      <c r="M16" s="4">
+        <v>1180</v>
+      </c>
+      <c r="N16" s="4">
+        <v>1181</v>
+      </c>
+      <c r="O16" s="4">
+        <v>1182</v>
+      </c>
+      <c r="P16" s="4">
+        <v>1183</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>1184</v>
+      </c>
+      <c r="R16" s="4">
+        <v>1185</v>
+      </c>
+      <c r="S16" s="4">
+        <v>1186</v>
+      </c>
+      <c r="T16" s="4">
+        <v>1187</v>
+      </c>
+      <c r="U16" s="4">
+        <v>1188</v>
+      </c>
+      <c r="V16" s="4">
+        <v>1189</v>
+      </c>
+      <c r="W16" s="4">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:39">
+      <c r="A17">
         <v>17</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>69</v>
       </c>
       <c r="C17" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D17" s="1">
         <v>0</v>
       </c>
       <c r="E17" s="4">
-        <v>1172</v>
+        <v>1191</v>
       </c>
       <c r="F17" s="4">
-        <v>1173</v>
+        <v>1192</v>
       </c>
       <c r="G17" s="4">
-        <v>1174</v>
+        <v>1193</v>
       </c>
       <c r="H17" s="4">
-        <v>1175</v>
+        <v>1194</v>
       </c>
       <c r="I17" s="4">
-        <v>1176</v>
+        <v>1195</v>
       </c>
       <c r="J17" s="4">
-        <v>1177</v>
+        <v>1196</v>
       </c>
       <c r="K17" s="4">
-        <v>1178</v>
+        <v>1197</v>
       </c>
       <c r="L17" s="4">
-        <v>1179</v>
+        <v>1198</v>
       </c>
       <c r="M17" s="4">
-        <v>1180</v>
+        <v>1199</v>
       </c>
       <c r="N17" s="4">
-        <v>1181</v>
+        <v>1200</v>
       </c>
       <c r="O17" s="4">
-        <v>1182</v>
+        <v>1201</v>
       </c>
       <c r="P17" s="4">
-        <v>1183</v>
+        <v>1202</v>
       </c>
       <c r="Q17" s="4">
-        <v>1184</v>
+        <v>1203</v>
       </c>
       <c r="R17" s="4">
-        <v>1185</v>
+        <v>1204</v>
       </c>
       <c r="S17" s="4">
-        <v>1186</v>
+        <v>1205</v>
       </c>
       <c r="T17" s="4">
-        <v>1187</v>
+        <v>1206</v>
       </c>
       <c r="U17" s="4">
-        <v>1188</v>
+        <v>1207</v>
       </c>
       <c r="V17" s="4">
-        <v>1189</v>
+        <v>1208</v>
       </c>
       <c r="W17" s="4">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="1:39">
-      <c r="A18" s="1">
+        <v>1209</v>
+      </c>
+      <c r="X17" s="4">
+        <v>1210</v>
+      </c>
+      <c r="Y17" s="4">
+        <v>1211</v>
+      </c>
+      <c r="Z17" s="4">
+        <v>1212</v>
+      </c>
+      <c r="AA17" s="4">
+        <v>1213</v>
+      </c>
+      <c r="AB17" s="4">
+        <v>1214</v>
+      </c>
+      <c r="AC17" s="4">
+        <v>1215</v>
+      </c>
+      <c r="AD17" s="4">
+        <v>1216</v>
+      </c>
+      <c r="AE17" s="4">
+        <v>1217</v>
+      </c>
+      <c r="AF17" s="4">
+        <v>1218</v>
+      </c>
+      <c r="AG17" s="4">
+        <v>1219</v>
+      </c>
+      <c r="AH17" s="4">
+        <v>1220</v>
+      </c>
+      <c r="AI17" s="4">
+        <v>1221</v>
+      </c>
+      <c r="AJ17" s="4">
+        <v>1222</v>
+      </c>
+      <c r="AK17" s="4">
+        <v>1223</v>
+      </c>
+      <c r="AL17" s="4">
+        <v>1224</v>
+      </c>
+      <c r="AM17" s="4">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18">
         <v>18</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>70</v>
       </c>
       <c r="C18" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D18" s="1">
         <v>0</v>
       </c>
       <c r="E18" s="4">
-        <v>1191</v>
+        <v>1226</v>
       </c>
       <c r="F18" s="4">
-        <v>1192</v>
+        <v>1227</v>
       </c>
       <c r="G18" s="4">
-        <v>1193</v>
+        <v>1228</v>
       </c>
       <c r="H18" s="4">
-        <v>1194</v>
+        <v>1229</v>
       </c>
       <c r="I18" s="4">
-        <v>1195</v>
+        <v>1230</v>
       </c>
       <c r="J18" s="4">
-        <v>1196</v>
+        <v>1231</v>
       </c>
       <c r="K18" s="4">
-        <v>1197</v>
+        <v>1232</v>
       </c>
       <c r="L18" s="4">
-        <v>1198</v>
+        <v>1233</v>
       </c>
       <c r="M18" s="4">
-        <v>1199</v>
+        <v>1234</v>
       </c>
       <c r="N18" s="4">
-        <v>1200</v>
+        <v>1235</v>
       </c>
       <c r="O18" s="4">
-        <v>1201</v>
+        <v>1236</v>
       </c>
       <c r="P18" s="4">
-        <v>1202</v>
+        <v>1237</v>
       </c>
       <c r="Q18" s="4">
-        <v>1203</v>
+        <v>1238</v>
       </c>
       <c r="R18" s="4">
-        <v>1204</v>
-      </c>
-      <c r="S18" s="4">
-        <v>1205</v>
-      </c>
-      <c r="T18" s="4">
-        <v>1206</v>
-      </c>
-      <c r="U18" s="4">
-        <v>1207</v>
-      </c>
-      <c r="V18" s="4">
-        <v>1208</v>
-      </c>
-      <c r="W18" s="4">
-        <v>1209</v>
-      </c>
-      <c r="X18" s="4">
-        <v>1210</v>
-      </c>
-      <c r="Y18" s="4">
-        <v>1211</v>
-      </c>
-      <c r="Z18" s="4">
-        <v>1212</v>
-      </c>
-      <c r="AA18" s="4">
-        <v>1213</v>
-      </c>
-      <c r="AB18" s="4">
-        <v>1214</v>
-      </c>
-      <c r="AC18" s="4">
-        <v>1215</v>
-      </c>
-      <c r="AD18" s="4">
-        <v>1216</v>
-      </c>
-      <c r="AE18" s="4">
-        <v>1217</v>
-      </c>
-      <c r="AF18" s="4">
-        <v>1218</v>
-      </c>
-      <c r="AG18" s="4">
-        <v>1219</v>
-      </c>
-      <c r="AH18" s="4">
-        <v>1220</v>
-      </c>
-      <c r="AI18" s="4">
-        <v>1221</v>
-      </c>
-      <c r="AJ18" s="4">
-        <v>1222</v>
-      </c>
-      <c r="AK18" s="4">
-        <v>1223</v>
-      </c>
-      <c r="AL18" s="4">
-        <v>1224</v>
-      </c>
-      <c r="AM18" s="4">
-        <v>1225</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
-      <c r="A19" s="1">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" s="1">
-        <v>18</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0</v>
-      </c>
-      <c r="E19" s="4">
-        <v>1226</v>
-      </c>
-      <c r="F19" s="4">
-        <v>1227</v>
-      </c>
-      <c r="G19" s="4">
-        <v>1228</v>
-      </c>
-      <c r="H19" s="4">
-        <v>1229</v>
-      </c>
-      <c r="I19" s="4">
-        <v>1230</v>
-      </c>
-      <c r="J19" s="4">
-        <v>1231</v>
-      </c>
-      <c r="K19" s="4">
-        <v>1232</v>
-      </c>
-      <c r="L19" s="4">
-        <v>1233</v>
-      </c>
-      <c r="M19" s="4">
-        <v>1234</v>
-      </c>
-      <c r="N19" s="4">
-        <v>1235</v>
-      </c>
-      <c r="O19" s="4">
-        <v>1236</v>
-      </c>
-      <c r="P19" s="4">
-        <v>1237</v>
-      </c>
-      <c r="Q19" s="4">
-        <v>1238</v>
-      </c>
-      <c r="R19" s="4">
         <v>1239</v>
       </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="3"/>
@@ -2560,11 +2545,6 @@
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="2:4">
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>

--- a/Table/Table_xls/s商店商城商会表/bMT3摆摊一级表.xlsx
+++ b/Table/Table_xls/s商店商城商会表/bMT3摆摊一级表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13065"/>
+    <workbookView windowWidth="19200" windowHeight="7070"/>
   </bookViews>
   <sheets>
     <sheet name="一级菜单" sheetId="1" r:id="rId1"/>
@@ -24,11 +24,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">user:
+          <t>user:
 2，珍品宠物
 3，珍品装备
 4，高级兽决
@@ -48,11 +47,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">user:
+          <t>user:
 排序功能字段
 从小到大排序</t>
         </r>
@@ -63,11 +61,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">user:
+          <t>user:
 0，不开浮动
 1，开浮动</t>
         </r>
@@ -78,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>ID</t>
   </si>
@@ -264,6 +261,9 @@
   </si>
   <si>
     <t>临时符</t>
+  </si>
+  <si>
+    <t>任务装备</t>
   </si>
   <si>
     <t>奇珍异宝</t>
@@ -298,12 +298,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -323,7 +323,61 @@
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="56"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -334,8 +388,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color indexed="52"/>
+      <color indexed="56"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -353,8 +408,23 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="56"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="56"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color indexed="60"/>
+      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -367,72 +437,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="56"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -458,13 +463,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="51"/>
+        <fgColor indexed="52"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="46"/>
+        <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="36"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,13 +511,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="62"/>
+        <fgColor indexed="44"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,31 +523,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="11"/>
+        <fgColor indexed="30"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="49"/>
+        <fgColor indexed="26"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="36"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
+        <fgColor indexed="11"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,43 +547,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="30"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="52"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="44"/>
+        <fgColor indexed="10"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -584,7 +565,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="53"/>
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="51"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="62"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -607,32 +612,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
-      <top style="thin">
-        <color indexed="23"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="23"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="62"/>
       </bottom>
       <diagonal/>
     </border>
@@ -663,15 +647,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="62"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color indexed="63"/>
       </left>
@@ -687,11 +662,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color indexed="30"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
       </bottom>
       <diagonal/>
     </border>
@@ -712,145 +717,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -930,6 +935,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1255,20 +1265,19 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BB27"/>
+  <dimension ref="A1:BB28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:A18"/>
+      <selection activeCell="N2" sqref="N2:O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="5" max="5" width="13.75" customWidth="1"/>
     <col min="6" max="6" width="10.25" customWidth="1"/>
@@ -2003,7 +2012,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>10</v>
       </c>
@@ -2011,31 +2020,19 @@
         <v>62</v>
       </c>
       <c r="C10" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" s="3">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F10">
-        <v>1002</v>
-      </c>
-      <c r="G10">
-        <v>1001</v>
-      </c>
-      <c r="H10">
-        <v>1003</v>
-      </c>
-      <c r="I10">
-        <v>1004</v>
-      </c>
-      <c r="J10" s="6">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>11</v>
       </c>
@@ -2043,43 +2040,31 @@
         <v>63</v>
       </c>
       <c r="C11" s="3">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D11" s="3">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="F11">
-        <v>1101</v>
+        <v>1002</v>
       </c>
       <c r="G11">
-        <v>1102</v>
+        <v>1001</v>
       </c>
       <c r="H11">
-        <v>1103</v>
+        <v>1003</v>
       </c>
       <c r="I11">
-        <v>1104</v>
-      </c>
-      <c r="J11">
-        <v>1105</v>
-      </c>
-      <c r="K11">
-        <v>1106</v>
-      </c>
-      <c r="L11" s="7">
-        <v>1107</v>
-      </c>
-      <c r="M11" s="7">
-        <v>1108</v>
-      </c>
-      <c r="N11" s="7">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22">
+        <v>1004</v>
+      </c>
+      <c r="J11" s="6">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>12</v>
       </c>
@@ -2087,114 +2072,111 @@
         <v>64</v>
       </c>
       <c r="C12" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" s="3">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1114</v>
+        <v>1100</v>
       </c>
       <c r="F12">
-        <v>1115</v>
+        <v>1101</v>
       </c>
       <c r="G12">
-        <v>1116</v>
+        <v>1102</v>
       </c>
       <c r="H12">
-        <v>1117</v>
+        <v>1103</v>
       </c>
       <c r="I12">
-        <v>1118</v>
+        <v>1104</v>
       </c>
       <c r="J12">
-        <v>1119</v>
+        <v>1105</v>
       </c>
       <c r="K12">
-        <v>1120</v>
-      </c>
-      <c r="L12">
-        <v>1121</v>
-      </c>
-      <c r="M12">
-        <v>1122</v>
-      </c>
-      <c r="N12">
-        <v>1123</v>
-      </c>
-      <c r="O12">
-        <v>1124</v>
-      </c>
-      <c r="P12">
-        <v>1125</v>
-      </c>
-      <c r="Q12">
-        <v>1126</v>
-      </c>
-      <c r="R12">
-        <v>1127</v>
-      </c>
-      <c r="S12">
-        <v>1128</v>
-      </c>
-      <c r="T12">
-        <v>1129</v>
-      </c>
-      <c r="U12">
-        <v>1130</v>
-      </c>
-      <c r="V12">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>1106</v>
+      </c>
+      <c r="L12" s="7">
+        <v>1107</v>
+      </c>
+      <c r="M12" s="7">
+        <v>1108</v>
+      </c>
+      <c r="N12" s="7">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13">
         <v>13</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C13">
-        <v>13</v>
-      </c>
-      <c r="D13">
+      <c r="C13" s="3">
+        <v>4</v>
+      </c>
+      <c r="D13" s="3">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1132</v>
+        <v>1114</v>
       </c>
       <c r="F13">
-        <v>1133</v>
+        <v>1115</v>
       </c>
       <c r="G13">
-        <v>1134</v>
+        <v>1116</v>
       </c>
       <c r="H13">
-        <v>1135</v>
+        <v>1117</v>
       </c>
       <c r="I13">
-        <v>1136</v>
+        <v>1118</v>
       </c>
       <c r="J13">
-        <v>1137</v>
+        <v>1119</v>
       </c>
       <c r="K13">
-        <v>1138</v>
+        <v>1120</v>
       </c>
       <c r="L13">
-        <v>1139</v>
+        <v>1121</v>
       </c>
       <c r="M13">
-        <v>1140</v>
-      </c>
-      <c r="N13" s="4">
-        <v>351</v>
-      </c>
-      <c r="O13" s="4">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>1122</v>
+      </c>
+      <c r="N13">
+        <v>1123</v>
+      </c>
+      <c r="O13">
+        <v>1124</v>
+      </c>
+      <c r="P13">
+        <v>1125</v>
+      </c>
+      <c r="Q13">
+        <v>1126</v>
+      </c>
+      <c r="R13">
+        <v>1127</v>
+      </c>
+      <c r="S13">
+        <v>1128</v>
+      </c>
+      <c r="T13">
+        <v>1129</v>
+      </c>
+      <c r="U13">
+        <v>1130</v>
+      </c>
+      <c r="V13">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14">
         <v>14</v>
       </c>
@@ -2202,19 +2184,46 @@
         <v>66</v>
       </c>
       <c r="C14">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1141</v>
+        <v>1132</v>
       </c>
       <c r="F14">
-        <v>1142</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1133</v>
+      </c>
+      <c r="G14">
+        <v>1134</v>
+      </c>
+      <c r="H14">
+        <v>1135</v>
+      </c>
+      <c r="I14">
+        <v>1136</v>
+      </c>
+      <c r="J14">
+        <v>1137</v>
+      </c>
+      <c r="K14">
+        <v>1138</v>
+      </c>
+      <c r="L14">
+        <v>1139</v>
+      </c>
+      <c r="M14">
+        <v>1140</v>
+      </c>
+      <c r="N14" s="4">
+        <v>351</v>
+      </c>
+      <c r="O14" s="4">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>15</v>
       </c>
@@ -2222,289 +2231,304 @@
         <v>67</v>
       </c>
       <c r="C15">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="F15">
-        <v>1144</v>
-      </c>
-      <c r="G15">
-        <v>1145</v>
-      </c>
-      <c r="H15">
-        <v>1146</v>
-      </c>
-      <c r="I15">
-        <v>1147</v>
-      </c>
-      <c r="J15">
-        <v>1148</v>
-      </c>
-      <c r="K15">
-        <v>1149</v>
-      </c>
-      <c r="L15">
-        <v>1150</v>
-      </c>
-      <c r="M15">
-        <v>1151</v>
-      </c>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="1:23">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16">
         <v>16</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="1">
-        <v>16</v>
-      </c>
-      <c r="D16" s="1">
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="D16">
         <v>0</v>
       </c>
-      <c r="E16" s="4">
-        <v>1172</v>
-      </c>
-      <c r="F16" s="4">
-        <v>1173</v>
-      </c>
-      <c r="G16" s="4">
-        <v>1174</v>
-      </c>
-      <c r="H16" s="4">
-        <v>1175</v>
-      </c>
-      <c r="I16" s="4">
-        <v>1176</v>
-      </c>
-      <c r="J16" s="4">
-        <v>1177</v>
-      </c>
-      <c r="K16" s="4">
-        <v>1178</v>
-      </c>
-      <c r="L16" s="4">
-        <v>1179</v>
-      </c>
-      <c r="M16" s="4">
-        <v>1180</v>
-      </c>
-      <c r="N16" s="4">
-        <v>1181</v>
-      </c>
-      <c r="O16" s="4">
-        <v>1182</v>
-      </c>
-      <c r="P16" s="4">
-        <v>1183</v>
-      </c>
-      <c r="Q16" s="4">
-        <v>1184</v>
-      </c>
-      <c r="R16" s="4">
-        <v>1185</v>
-      </c>
-      <c r="S16" s="4">
-        <v>1186</v>
-      </c>
-      <c r="T16" s="4">
-        <v>1187</v>
-      </c>
-      <c r="U16" s="4">
-        <v>1188</v>
-      </c>
-      <c r="V16" s="4">
-        <v>1189</v>
-      </c>
-      <c r="W16" s="4">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="17" s="1" customFormat="1" spans="1:39">
-      <c r="A17">
+      <c r="E16">
+        <v>1143</v>
+      </c>
+      <c r="F16">
+        <v>1144</v>
+      </c>
+      <c r="G16">
+        <v>1145</v>
+      </c>
+      <c r="H16">
+        <v>1146</v>
+      </c>
+      <c r="I16">
+        <v>1147</v>
+      </c>
+      <c r="J16">
+        <v>1148</v>
+      </c>
+      <c r="K16">
+        <v>1149</v>
+      </c>
+      <c r="L16">
+        <v>1150</v>
+      </c>
+      <c r="M16">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:23">
+      <c r="A17" s="1">
         <v>17</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>69</v>
       </c>
       <c r="C17" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D17" s="1">
         <v>0</v>
       </c>
       <c r="E17" s="4">
-        <v>1191</v>
+        <v>1172</v>
       </c>
       <c r="F17" s="4">
-        <v>1192</v>
+        <v>1173</v>
       </c>
       <c r="G17" s="4">
-        <v>1193</v>
+        <v>1174</v>
       </c>
       <c r="H17" s="4">
-        <v>1194</v>
+        <v>1175</v>
       </c>
       <c r="I17" s="4">
-        <v>1195</v>
+        <v>1176</v>
       </c>
       <c r="J17" s="4">
-        <v>1196</v>
+        <v>1177</v>
       </c>
       <c r="K17" s="4">
-        <v>1197</v>
+        <v>1178</v>
       </c>
       <c r="L17" s="4">
-        <v>1198</v>
+        <v>1179</v>
       </c>
       <c r="M17" s="4">
-        <v>1199</v>
+        <v>1180</v>
       </c>
       <c r="N17" s="4">
-        <v>1200</v>
+        <v>1181</v>
       </c>
       <c r="O17" s="4">
-        <v>1201</v>
+        <v>1182</v>
       </c>
       <c r="P17" s="4">
-        <v>1202</v>
+        <v>1183</v>
       </c>
       <c r="Q17" s="4">
-        <v>1203</v>
+        <v>1184</v>
       </c>
       <c r="R17" s="4">
-        <v>1204</v>
+        <v>1185</v>
       </c>
       <c r="S17" s="4">
-        <v>1205</v>
+        <v>1186</v>
       </c>
       <c r="T17" s="4">
-        <v>1206</v>
+        <v>1187</v>
       </c>
       <c r="U17" s="4">
-        <v>1207</v>
+        <v>1188</v>
       </c>
       <c r="V17" s="4">
-        <v>1208</v>
+        <v>1189</v>
       </c>
       <c r="W17" s="4">
-        <v>1209</v>
-      </c>
-      <c r="X17" s="4">
-        <v>1210</v>
-      </c>
-      <c r="Y17" s="4">
-        <v>1211</v>
-      </c>
-      <c r="Z17" s="4">
-        <v>1212</v>
-      </c>
-      <c r="AA17" s="4">
-        <v>1213</v>
-      </c>
-      <c r="AB17" s="4">
-        <v>1214</v>
-      </c>
-      <c r="AC17" s="4">
-        <v>1215</v>
-      </c>
-      <c r="AD17" s="4">
-        <v>1216</v>
-      </c>
-      <c r="AE17" s="4">
-        <v>1217</v>
-      </c>
-      <c r="AF17" s="4">
-        <v>1218</v>
-      </c>
-      <c r="AG17" s="4">
-        <v>1219</v>
-      </c>
-      <c r="AH17" s="4">
-        <v>1220</v>
-      </c>
-      <c r="AI17" s="4">
-        <v>1221</v>
-      </c>
-      <c r="AJ17" s="4">
-        <v>1222</v>
-      </c>
-      <c r="AK17" s="4">
-        <v>1223</v>
-      </c>
-      <c r="AL17" s="4">
-        <v>1224</v>
-      </c>
-      <c r="AM17" s="4">
-        <v>1225</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
-      <c r="A18">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="1:39">
+      <c r="A18" s="1">
         <v>18</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C18" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D18" s="1">
         <v>0</v>
       </c>
       <c r="E18" s="4">
+        <v>1191</v>
+      </c>
+      <c r="F18" s="4">
+        <v>1192</v>
+      </c>
+      <c r="G18" s="4">
+        <v>1193</v>
+      </c>
+      <c r="H18" s="4">
+        <v>1194</v>
+      </c>
+      <c r="I18" s="4">
+        <v>1195</v>
+      </c>
+      <c r="J18" s="4">
+        <v>1196</v>
+      </c>
+      <c r="K18" s="4">
+        <v>1197</v>
+      </c>
+      <c r="L18" s="4">
+        <v>1198</v>
+      </c>
+      <c r="M18" s="4">
+        <v>1199</v>
+      </c>
+      <c r="N18" s="4">
+        <v>1200</v>
+      </c>
+      <c r="O18" s="4">
+        <v>1201</v>
+      </c>
+      <c r="P18" s="4">
+        <v>1202</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>1203</v>
+      </c>
+      <c r="R18" s="4">
+        <v>1204</v>
+      </c>
+      <c r="S18" s="4">
+        <v>1205</v>
+      </c>
+      <c r="T18" s="4">
+        <v>1206</v>
+      </c>
+      <c r="U18" s="4">
+        <v>1207</v>
+      </c>
+      <c r="V18" s="4">
+        <v>1208</v>
+      </c>
+      <c r="W18" s="4">
+        <v>1209</v>
+      </c>
+      <c r="X18" s="4">
+        <v>1210</v>
+      </c>
+      <c r="Y18" s="4">
+        <v>1211</v>
+      </c>
+      <c r="Z18" s="4">
+        <v>1212</v>
+      </c>
+      <c r="AA18" s="4">
+        <v>1213</v>
+      </c>
+      <c r="AB18" s="4">
+        <v>1214</v>
+      </c>
+      <c r="AC18" s="4">
+        <v>1215</v>
+      </c>
+      <c r="AD18" s="4">
+        <v>1216</v>
+      </c>
+      <c r="AE18" s="4">
+        <v>1217</v>
+      </c>
+      <c r="AF18" s="4">
+        <v>1218</v>
+      </c>
+      <c r="AG18" s="4">
+        <v>1219</v>
+      </c>
+      <c r="AH18" s="4">
+        <v>1220</v>
+      </c>
+      <c r="AI18" s="4">
+        <v>1221</v>
+      </c>
+      <c r="AJ18" s="4">
+        <v>1222</v>
+      </c>
+      <c r="AK18" s="4">
+        <v>1223</v>
+      </c>
+      <c r="AL18" s="4">
+        <v>1224</v>
+      </c>
+      <c r="AM18" s="4">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" s="1">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="1">
+        <v>18</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4">
         <v>1226</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F19" s="4">
         <v>1227</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G19" s="4">
         <v>1228</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H19" s="4">
         <v>1229</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I19" s="4">
         <v>1230</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J19" s="4">
         <v>1231</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K19" s="4">
         <v>1232</v>
       </c>
-      <c r="L18" s="4">
+      <c r="L19" s="4">
         <v>1233</v>
       </c>
-      <c r="M18" s="4">
+      <c r="M19" s="4">
         <v>1234</v>
       </c>
-      <c r="N18" s="4">
+      <c r="N19" s="4">
         <v>1235</v>
       </c>
-      <c r="O18" s="4">
+      <c r="O19" s="4">
         <v>1236</v>
       </c>
-      <c r="P18" s="4">
+      <c r="P19" s="4">
         <v>1237</v>
       </c>
-      <c r="Q18" s="4">
+      <c r="Q19" s="4">
         <v>1238</v>
       </c>
-      <c r="R18" s="4">
+      <c r="R19" s="4">
         <v>1239</v>
       </c>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="3"/>
@@ -2545,6 +2569,11 @@
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>

--- a/Table/Table_xls/s商店商城商会表/bMT3摆摊一级表.xlsx
+++ b/Table/Table_xls/s商店商城商会表/bMT3摆摊一级表.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7065"/>
   </bookViews>
   <sheets>
     <sheet name="一级菜单" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -296,14 +296,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -316,133 +310,18 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="9"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="26">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -451,7 +330,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.35"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,138 +342,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="52"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="36"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="45"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="44"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="30"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="11"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="46"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="51"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="62"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -602,264 +355,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="52"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="62"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="62"/>
-      </top>
-      <bottom style="double">
-        <color indexed="62"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="63"/>
-      </left>
-      <right style="double">
-        <color indexed="63"/>
-      </right>
-      <top style="double">
-        <color indexed="63"/>
-      </top>
-      <bottom style="double">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="30"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
-      <top style="thin">
-        <color indexed="23"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -882,58 +384,14 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1238,6 +696,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -1265,19 +724,19 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:O2"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="5" max="5" width="13.75" customWidth="1"/>
     <col min="6" max="6" width="10.25" customWidth="1"/>
@@ -1286,7 +745,7 @@
     <col min="14" max="54" width="11.625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1450,7 +909,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:54" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>2</v>
       </c>
@@ -1497,7 +956,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:54" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>3</v>
       </c>
@@ -1537,29 +996,56 @@
       <c r="M3">
         <v>208</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="8">
+        <v>216</v>
+      </c>
+      <c r="O3" s="8">
+        <v>217</v>
+      </c>
+      <c r="P3" s="8">
+        <v>218</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>219</v>
+      </c>
+      <c r="R3" s="8">
+        <v>220</v>
+      </c>
+      <c r="S3" s="8">
+        <v>221</v>
+      </c>
+      <c r="T3" s="8">
+        <v>222</v>
+      </c>
+      <c r="U3" s="8">
+        <v>223</v>
+      </c>
+      <c r="V3" s="8">
+        <v>224</v>
+      </c>
+      <c r="W3">
         <v>209</v>
       </c>
-      <c r="O3">
+      <c r="X3">
         <v>210</v>
       </c>
-      <c r="P3">
+      <c r="Y3">
         <v>211</v>
       </c>
-      <c r="Q3">
+      <c r="Z3">
         <v>212</v>
       </c>
-      <c r="R3">
+      <c r="AA3">
         <v>213</v>
       </c>
-      <c r="S3">
+      <c r="AB3">
         <v>214</v>
       </c>
-      <c r="T3">
+      <c r="AC3">
         <v>215</v>
       </c>
     </row>
-    <row r="4" spans="1:54">
+    <row r="4" spans="1:54" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>4</v>
       </c>
@@ -1723,7 +1209,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="5" spans="1:45">
+    <row r="5" spans="1:54" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>5</v>
       </c>
@@ -1860,7 +1346,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:54" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>6</v>
       </c>
@@ -1904,7 +1390,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:54" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>7</v>
       </c>
@@ -1948,7 +1434,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:54" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>8</v>
       </c>
@@ -1971,7 +1457,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:54" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>9</v>
       </c>
@@ -2012,7 +1498,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:54" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>10</v>
       </c>
@@ -2032,7 +1518,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:54" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>11</v>
       </c>
@@ -2064,7 +1550,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:54" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>12</v>
       </c>
@@ -2108,7 +1594,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:54" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>13</v>
       </c>
@@ -2176,7 +1662,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:54" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>14</v>
       </c>
@@ -2223,7 +1709,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:54" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>15</v>
       </c>
@@ -2243,7 +1729,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:54" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>16</v>
       </c>
@@ -2284,7 +1770,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" spans="1:23">
+    <row r="17" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>17</v>
       </c>
@@ -2355,7 +1841,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" spans="1:39">
+    <row r="18" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>18</v>
       </c>
@@ -2474,7 +1960,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>19</v>
       </c>
@@ -2530,55 +2016,56 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="20" spans="2:4">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.15">
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="2:4">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.15">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="2:4">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.15">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="2:4">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.15">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="2:4">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.15">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="2:4">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.15">
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="2:4">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.15">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
     </row>
-    <row r="27" spans="2:4">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.15">
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="2:4">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.15">
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51041666666666696" footer="0.51041666666666696"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
-  <legacyDrawing r:id="rId2"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>